--- a/medicine/Enfance/Enquête_au_collège/Enquête_au_collège.xlsx
+++ b/medicine/Enfance/Enquête_au_collège/Enquête_au_collège.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Enqu%C3%AAte_au_coll%C3%A8ge</t>
+          <t>Enquête_au_collège</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Enquête au collège est une série de huit romans policiers pour enfants de Jean-Philippe Arrou-Vignod, illustrés par Serge Bloch. Dans les éditions plus récentes la série s'appelle Enquêtes au collège. Elle a été édité en France par Gallimard Jeunesse.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Enqu%C3%AAte_au_coll%C3%A8ge</t>
+          <t>Enquête_au_collège</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Liste des romans</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le Professeur a disparu (publié en 1987)
 Enquête au collège (publié en 1991)
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Enqu%C3%AAte_au_coll%C3%A8ge</t>
+          <t>Enquête_au_collège</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mathilde Blondin
 Rémi Pharamon
